--- a/natmiOut/OldD2/LR-pairs_lrc2p/Fgf1-Fgfr3.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Fgf1-Fgfr3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -91,7 +94,10 @@
     <t>Fgfr3</t>
   </si>
   <si>
-    <t>ECs</t>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>M2</t>
   </si>
 </sst>
 </file>
@@ -449,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G2">
-        <v>0.496596920673028</v>
+        <v>0.5178445</v>
       </c>
       <c r="H2">
-        <v>0.496596920673028</v>
+        <v>1.035689</v>
       </c>
       <c r="I2">
-        <v>0.06564774820420652</v>
+        <v>0.06275179574417895</v>
       </c>
       <c r="J2">
-        <v>0.06564774820420652</v>
+        <v>0.05758005850800962</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>6.7698411407019</v>
+        <v>6.834606</v>
       </c>
       <c r="N2">
-        <v>6.7698411407019</v>
+        <v>13.669212</v>
       </c>
       <c r="O2">
-        <v>0.6074051537697821</v>
+        <v>0.5800266923841273</v>
       </c>
       <c r="P2">
-        <v>0.6074051537697821</v>
+        <v>0.4933860619101292</v>
       </c>
       <c r="Q2">
-        <v>3.361882263918143</v>
+        <v>3.539263126767</v>
       </c>
       <c r="R2">
-        <v>3.361882263918143</v>
+        <v>14.157052507068</v>
       </c>
       <c r="S2">
-        <v>0.039874780592616</v>
+        <v>0.03639771652666048</v>
       </c>
       <c r="T2">
-        <v>0.039874780592616</v>
+        <v>0.0284091983118217</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G3">
-        <v>0.496596920673028</v>
+        <v>0.5178445</v>
       </c>
       <c r="H3">
-        <v>0.496596920673028</v>
+        <v>1.035689</v>
       </c>
       <c r="I3">
-        <v>0.06564774820420652</v>
+        <v>0.06275179574417895</v>
       </c>
       <c r="J3">
-        <v>0.06564774820420652</v>
+        <v>0.05758005850800962</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.829257075142636</v>
+        <v>0.856297</v>
       </c>
       <c r="N3">
-        <v>0.829257075142636</v>
+        <v>2.568891</v>
       </c>
       <c r="O3">
-        <v>0.07440278298605235</v>
+        <v>0.07267062894458745</v>
       </c>
       <c r="P3">
-        <v>0.07440278298605235</v>
+        <v>0.09272334162103665</v>
       </c>
       <c r="Q3">
-        <v>0.4118065099621548</v>
+        <v>0.4434286918165</v>
       </c>
       <c r="R3">
-        <v>0.4118065099621548</v>
+        <v>2.660572150899</v>
       </c>
       <c r="S3">
-        <v>0.004884375163160586</v>
+        <v>0.00456021246413177</v>
       </c>
       <c r="T3">
-        <v>0.004884375163160586</v>
+        <v>0.005339015435597455</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="E4">
         <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G4">
-        <v>0.496596920673028</v>
+        <v>0.5178445</v>
       </c>
       <c r="H4">
-        <v>0.496596920673028</v>
+        <v>1.035689</v>
       </c>
       <c r="I4">
-        <v>0.06564774820420652</v>
+        <v>0.06275179574417895</v>
       </c>
       <c r="J4">
-        <v>0.06564774820420652</v>
+        <v>0.05758005850800962</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>2.73648285676271</v>
+        <v>0.2788403333333334</v>
       </c>
       <c r="N4">
-        <v>2.73648285676271</v>
+        <v>0.8365210000000001</v>
       </c>
       <c r="O4">
-        <v>0.2455233078376184</v>
+        <v>0.02366410532613305</v>
       </c>
       <c r="P4">
-        <v>0.2455233078376184</v>
+        <v>0.03019397181747735</v>
       </c>
       <c r="Q4">
-        <v>1.358928960142893</v>
+        <v>0.1443959329948334</v>
       </c>
       <c r="R4">
-        <v>1.358928960142893</v>
+        <v>0.8663755979690001</v>
       </c>
       <c r="S4">
-        <v>0.01611805229118786</v>
+        <v>0.001484965103894238</v>
       </c>
       <c r="T4">
-        <v>0.01611805229118786</v>
+        <v>0.001738570663839539</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,185 +714,185 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G5">
-        <v>0.496596920673028</v>
+        <v>0.5178445</v>
       </c>
       <c r="H5">
-        <v>0.496596920673028</v>
+        <v>1.035689</v>
       </c>
       <c r="I5">
-        <v>0.06564774820420652</v>
+        <v>0.06275179574417895</v>
       </c>
       <c r="J5">
-        <v>0.06564774820420652</v>
+        <v>0.05758005850800962</v>
       </c>
       <c r="K5">
         <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.809930450773398</v>
+        <v>0.05413033333333334</v>
       </c>
       <c r="N5">
-        <v>0.809930450773398</v>
+        <v>0.162391</v>
       </c>
       <c r="O5">
-        <v>0.07266875540654688</v>
+        <v>0.004593832943842499</v>
       </c>
       <c r="P5">
-        <v>0.07266875540654688</v>
+        <v>0.005861453899438226</v>
       </c>
       <c r="Q5">
-        <v>0.4022089678133869</v>
+        <v>0.02803109539983334</v>
       </c>
       <c r="R5">
-        <v>0.4022089678133869</v>
+        <v>0.168186572399</v>
       </c>
       <c r="S5">
-        <v>0.004770540157242061</v>
+        <v>0.0002882712665748848</v>
       </c>
       <c r="T5">
-        <v>0.004770540157242061</v>
+        <v>0.0003375028584716542</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E6">
         <v>1</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G6">
-        <v>0.916424667182295</v>
+        <v>0.5178445</v>
       </c>
       <c r="H6">
-        <v>0.916424667182295</v>
+        <v>1.035689</v>
       </c>
       <c r="I6">
-        <v>0.1211469771455122</v>
+        <v>0.06275179574417895</v>
       </c>
       <c r="J6">
-        <v>0.1211469771455122</v>
+        <v>0.05758005850800962</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>6.7698411407019</v>
+        <v>2.949111</v>
       </c>
       <c r="N6">
-        <v>6.7698411407019</v>
+        <v>8.847333000000001</v>
       </c>
       <c r="O6">
-        <v>0.6074051537697821</v>
+        <v>0.2502796940750712</v>
       </c>
       <c r="P6">
-        <v>0.6074051537697821</v>
+        <v>0.319341801654516</v>
       </c>
       <c r="Q6">
-        <v>6.204049414244747</v>
+        <v>1.5271809112395</v>
       </c>
       <c r="R6">
-        <v>6.204049414244747</v>
+        <v>9.163085467437002</v>
       </c>
       <c r="S6">
-        <v>0.07358529828181412</v>
+        <v>0.01570550024151447</v>
       </c>
       <c r="T6">
-        <v>0.07358529828181412</v>
+        <v>0.01838771962332024</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
         <v>23</v>
       </c>
-      <c r="C7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7" t="s">
-        <v>20</v>
-      </c>
       <c r="E7">
         <v>1</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G7">
-        <v>0.916424667182295</v>
+        <v>0.5178445</v>
       </c>
       <c r="H7">
-        <v>0.916424667182295</v>
+        <v>1.035689</v>
       </c>
       <c r="I7">
-        <v>0.1211469771455122</v>
+        <v>0.06275179574417895</v>
       </c>
       <c r="J7">
-        <v>0.1211469771455122</v>
+        <v>0.05758005850800962</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.829257075142636</v>
+        <v>0.8102765000000001</v>
       </c>
       <c r="N7">
-        <v>0.829257075142636</v>
+        <v>1.620553</v>
       </c>
       <c r="O7">
-        <v>0.07440278298605235</v>
+        <v>0.06876504632623846</v>
       </c>
       <c r="P7">
-        <v>0.07440278298605235</v>
+        <v>0.05849336909740267</v>
       </c>
       <c r="Q7">
-        <v>0.7599516390961536</v>
+        <v>0.4195972290042501</v>
       </c>
       <c r="R7">
-        <v>0.7599516390961536</v>
+        <v>1.678388916017</v>
       </c>
       <c r="S7">
-        <v>0.009013672249973789</v>
+        <v>0.00431513014140312</v>
       </c>
       <c r="T7">
-        <v>0.009013672249973789</v>
+        <v>0.003368051614959048</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -894,61 +900,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.916424667182295</v>
+        <v>0.5275216666666668</v>
       </c>
       <c r="H8">
-        <v>0.916424667182295</v>
+        <v>1.582565</v>
       </c>
       <c r="I8">
-        <v>0.1211469771455122</v>
+        <v>0.06392446357409517</v>
       </c>
       <c r="J8">
-        <v>0.1211469771455122</v>
+        <v>0.08798412003287498</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>2.73648285676271</v>
+        <v>6.834606</v>
       </c>
       <c r="N8">
-        <v>2.73648285676271</v>
+        <v>13.669212</v>
       </c>
       <c r="O8">
-        <v>0.2455233078376184</v>
+        <v>0.5800266923841273</v>
       </c>
       <c r="P8">
-        <v>0.2455233078376184</v>
+        <v>0.4933860619101292</v>
       </c>
       <c r="Q8">
-        <v>2.507780391258823</v>
+        <v>3.605402748130001</v>
       </c>
       <c r="R8">
-        <v>2.507780391258823</v>
+        <v>21.63241648878</v>
       </c>
       <c r="S8">
-        <v>0.02974440656329452</v>
+        <v>0.03707789516931205</v>
       </c>
       <c r="T8">
-        <v>0.02974440656329452</v>
+        <v>0.04341013849364829</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -956,309 +962,1053 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.916424667182295</v>
+        <v>0.5275216666666668</v>
       </c>
       <c r="H9">
-        <v>0.916424667182295</v>
+        <v>1.582565</v>
       </c>
       <c r="I9">
-        <v>0.1211469771455122</v>
+        <v>0.06392446357409517</v>
       </c>
       <c r="J9">
-        <v>0.1211469771455122</v>
+        <v>0.08798412003287498</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.809930450773398</v>
+        <v>0.856297</v>
       </c>
       <c r="N9">
-        <v>0.809930450773398</v>
+        <v>2.568891</v>
       </c>
       <c r="O9">
-        <v>0.07266875540654688</v>
+        <v>0.07267062894458745</v>
       </c>
       <c r="P9">
-        <v>0.07266875540654688</v>
+        <v>0.09272334162103665</v>
       </c>
       <c r="Q9">
-        <v>0.7422402437908174</v>
+        <v>0.4517152206016667</v>
       </c>
       <c r="R9">
-        <v>0.7422402437908174</v>
+        <v>4.065436985415</v>
       </c>
       <c r="S9">
-        <v>0.008803600050429752</v>
+        <v>0.004645430972874867</v>
       </c>
       <c r="T9">
-        <v>0.008803600050429752</v>
+        <v>0.008158181619034562</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>6.15154740738719</v>
+        <v>0.5275216666666668</v>
       </c>
       <c r="H10">
-        <v>6.15154740738719</v>
+        <v>1.582565</v>
       </c>
       <c r="I10">
-        <v>0.8132052746502813</v>
+        <v>0.06392446357409517</v>
       </c>
       <c r="J10">
-        <v>0.8132052746502813</v>
+        <v>0.08798412003287498</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>6.7698411407019</v>
+        <v>0.2788403333333334</v>
       </c>
       <c r="N10">
-        <v>6.7698411407019</v>
+        <v>0.8365210000000001</v>
       </c>
       <c r="O10">
-        <v>0.6074051537697821</v>
+        <v>0.02366410532613305</v>
       </c>
       <c r="P10">
-        <v>0.6074051537697821</v>
+        <v>0.03019397181747735</v>
       </c>
       <c r="Q10">
-        <v>41.64499871750791</v>
+        <v>0.1470943173738889</v>
       </c>
       <c r="R10">
-        <v>41.64499871750791</v>
+        <v>1.323848856365</v>
       </c>
       <c r="S10">
-        <v>0.4939450748953519</v>
+        <v>0.001512715238933944</v>
       </c>
       <c r="T10">
-        <v>0.4939450748953519</v>
+        <v>0.002656590040658172</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>6.15154740738719</v>
+        <v>0.5275216666666668</v>
       </c>
       <c r="H11">
-        <v>6.15154740738719</v>
+        <v>1.582565</v>
       </c>
       <c r="I11">
-        <v>0.8132052746502813</v>
+        <v>0.06392446357409517</v>
       </c>
       <c r="J11">
-        <v>0.8132052746502813</v>
+        <v>0.08798412003287498</v>
       </c>
       <c r="K11">
         <v>1</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M11">
-        <v>0.829257075142636</v>
+        <v>0.05413033333333334</v>
       </c>
       <c r="N11">
-        <v>0.829257075142636</v>
+        <v>0.162391</v>
       </c>
       <c r="O11">
-        <v>0.07440278298605235</v>
+        <v>0.004593832943842499</v>
       </c>
       <c r="P11">
-        <v>0.07440278298605235</v>
+        <v>0.005861453899438226</v>
       </c>
       <c r="Q11">
-        <v>5.101214210651166</v>
+        <v>0.02855492365722223</v>
       </c>
       <c r="R11">
-        <v>5.101214210651166</v>
+        <v>0.256994312915</v>
       </c>
       <c r="S11">
-        <v>0.06050473557291797</v>
+        <v>0.0002936583066841382</v>
       </c>
       <c r="T11">
-        <v>0.06050473557291797</v>
+        <v>0.000515714863455336</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
         <v>22</v>
       </c>
-      <c r="B12" t="s">
-        <v>23</v>
-      </c>
-      <c r="C12" t="s">
-        <v>24</v>
-      </c>
-      <c r="D12" t="s">
-        <v>21</v>
-      </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>6.15154740738719</v>
+        <v>0.5275216666666668</v>
       </c>
       <c r="H12">
-        <v>6.15154740738719</v>
+        <v>1.582565</v>
       </c>
       <c r="I12">
-        <v>0.8132052746502813</v>
+        <v>0.06392446357409517</v>
       </c>
       <c r="J12">
-        <v>0.8132052746502813</v>
+        <v>0.08798412003287498</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>2.73648285676271</v>
+        <v>2.949111</v>
       </c>
       <c r="N12">
-        <v>2.73648285676271</v>
+        <v>8.847333000000001</v>
       </c>
       <c r="O12">
-        <v>0.2455233078376184</v>
+        <v>0.2502796940750712</v>
       </c>
       <c r="P12">
-        <v>0.2455233078376184</v>
+        <v>0.319341801654516</v>
       </c>
       <c r="Q12">
-        <v>16.83360402287814</v>
+        <v>1.555719949905001</v>
       </c>
       <c r="R12">
-        <v>16.83360402287814</v>
+        <v>14.001479549145</v>
       </c>
       <c r="S12">
-        <v>0.199660848983136</v>
+        <v>0.01599899518723757</v>
       </c>
       <c r="T12">
-        <v>0.199660848983136</v>
+        <v>0.02809700740828549</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>0.5275216666666668</v>
+      </c>
+      <c r="H13">
+        <v>1.582565</v>
+      </c>
+      <c r="I13">
+        <v>0.06392446357409517</v>
+      </c>
+      <c r="J13">
+        <v>0.08798412003287498</v>
+      </c>
+      <c r="K13">
+        <v>2</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>0.8102765000000001</v>
+      </c>
+      <c r="N13">
+        <v>1.620553</v>
+      </c>
+      <c r="O13">
+        <v>0.06876504632623846</v>
+      </c>
+      <c r="P13">
+        <v>0.05849336909740267</v>
+      </c>
+      <c r="Q13">
+        <v>0.4274384097408335</v>
+      </c>
+      <c r="R13">
+        <v>2.564630458445</v>
+      </c>
+      <c r="S13">
+        <v>0.004395768699052597</v>
+      </c>
+      <c r="T13">
+        <v>0.005146487607793136</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
         <v>22</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>0.9548856666666667</v>
+      </c>
+      <c r="H14">
+        <v>2.864657</v>
+      </c>
+      <c r="I14">
+        <v>0.1157119372972211</v>
+      </c>
+      <c r="J14">
+        <v>0.1592631742399304</v>
+      </c>
+      <c r="K14">
+        <v>2</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>6.834606</v>
+      </c>
+      <c r="N14">
+        <v>13.669212</v>
+      </c>
+      <c r="O14">
+        <v>0.5800266923841273</v>
+      </c>
+      <c r="P14">
+        <v>0.4933860619101292</v>
+      </c>
+      <c r="Q14">
+        <v>6.526267306714001</v>
+      </c>
+      <c r="R14">
+        <v>39.157603840284</v>
+      </c>
+      <c r="S14">
+        <v>0.0671160122598667</v>
+      </c>
+      <c r="T14">
+        <v>0.07857823034554601</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>0.9548856666666667</v>
+      </c>
+      <c r="H15">
+        <v>2.864657</v>
+      </c>
+      <c r="I15">
+        <v>0.1157119372972211</v>
+      </c>
+      <c r="J15">
+        <v>0.1592631742399304</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>0.856297</v>
+      </c>
+      <c r="N15">
+        <v>2.568891</v>
+      </c>
+      <c r="O15">
+        <v>0.07267062894458745</v>
+      </c>
+      <c r="P15">
+        <v>0.09272334162103665</v>
+      </c>
+      <c r="Q15">
+        <v>0.8176657317096667</v>
+      </c>
+      <c r="R15">
+        <v>7.358991585387</v>
+      </c>
+      <c r="S15">
+        <v>0.008408859259785725</v>
+      </c>
+      <c r="T15">
+        <v>0.01476741371269976</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>26</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>0.9548856666666667</v>
+      </c>
+      <c r="H16">
+        <v>2.864657</v>
+      </c>
+      <c r="I16">
+        <v>0.1157119372972211</v>
+      </c>
+      <c r="J16">
+        <v>0.1592631742399304</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M16">
+        <v>0.2788403333333334</v>
+      </c>
+      <c r="N16">
+        <v>0.8365210000000001</v>
+      </c>
+      <c r="O16">
+        <v>0.02366410532613305</v>
+      </c>
+      <c r="P16">
+        <v>0.03019397181747735</v>
+      </c>
+      <c r="Q16">
+        <v>0.2662606375885556</v>
+      </c>
+      <c r="R16">
+        <v>2.396345738297001</v>
+      </c>
+      <c r="S16">
+        <v>0.002738219471692343</v>
+      </c>
+      <c r="T16">
+        <v>0.004808787794562445</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>27</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>0.9548856666666667</v>
+      </c>
+      <c r="H17">
+        <v>2.864657</v>
+      </c>
+      <c r="I17">
+        <v>0.1157119372972211</v>
+      </c>
+      <c r="J17">
+        <v>0.1592631742399304</v>
+      </c>
+      <c r="K17">
+        <v>1</v>
+      </c>
+      <c r="L17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M17">
+        <v>0.05413033333333334</v>
+      </c>
+      <c r="N17">
+        <v>0.162391</v>
+      </c>
+      <c r="O17">
+        <v>0.004593832943842499</v>
+      </c>
+      <c r="P17">
+        <v>0.005861453899438226</v>
+      </c>
+      <c r="Q17">
+        <v>0.0516882794318889</v>
+      </c>
+      <c r="R17">
+        <v>0.465194514887</v>
+      </c>
+      <c r="S17">
+        <v>0.000531561309551812</v>
+      </c>
+      <c r="T17">
+        <v>0.0009335137536855499</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" t="s">
+        <v>22</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>0.9548856666666667</v>
+      </c>
+      <c r="H18">
+        <v>2.864657</v>
+      </c>
+      <c r="I18">
+        <v>0.1157119372972211</v>
+      </c>
+      <c r="J18">
+        <v>0.1592631742399304</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>2.949111</v>
+      </c>
+      <c r="N18">
+        <v>8.847333000000001</v>
+      </c>
+      <c r="O18">
+        <v>0.2502796940750712</v>
+      </c>
+      <c r="P18">
+        <v>0.319341801654516</v>
+      </c>
+      <c r="Q18">
+        <v>2.816063823309</v>
+      </c>
+      <c r="R18">
+        <v>25.344574409781</v>
+      </c>
+      <c r="S18">
+        <v>0.02896034826758233</v>
+      </c>
+      <c r="T18">
+        <v>0.05085938899899649</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" t="s">
         <v>23</v>
       </c>
-      <c r="C13" t="s">
-        <v>24</v>
-      </c>
-      <c r="D13" t="s">
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>0.9548856666666667</v>
+      </c>
+      <c r="H19">
+        <v>2.864657</v>
+      </c>
+      <c r="I19">
+        <v>0.1157119372972211</v>
+      </c>
+      <c r="J19">
+        <v>0.1592631742399304</v>
+      </c>
+      <c r="K19">
+        <v>2</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>0.8102765000000001</v>
+      </c>
+      <c r="N19">
+        <v>1.620553</v>
+      </c>
+      <c r="O19">
+        <v>0.06876504632623846</v>
+      </c>
+      <c r="P19">
+        <v>0.05849336909740267</v>
+      </c>
+      <c r="Q19">
+        <v>0.7737214158868334</v>
+      </c>
+      <c r="R19">
+        <v>4.642328495321001</v>
+      </c>
+      <c r="S19">
+        <v>0.00795693672874221</v>
+      </c>
+      <c r="T19">
+        <v>0.009315839634440203</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" t="s">
+        <v>20</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>6.252014</v>
+      </c>
+      <c r="H20">
+        <v>12.504028</v>
+      </c>
+      <c r="I20">
+        <v>0.7576118033845048</v>
+      </c>
+      <c r="J20">
+        <v>0.695172647219185</v>
+      </c>
+      <c r="K20">
+        <v>2</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>6.834606</v>
+      </c>
+      <c r="N20">
+        <v>13.669212</v>
+      </c>
+      <c r="O20">
+        <v>0.5800266923841273</v>
+      </c>
+      <c r="P20">
+        <v>0.4933860619101292</v>
+      </c>
+      <c r="Q20">
+        <v>42.730052396484</v>
+      </c>
+      <c r="R20">
+        <v>170.920209585936</v>
+      </c>
+      <c r="S20">
+        <v>0.4394350684282881</v>
+      </c>
+      <c r="T20">
+        <v>0.3429884947591132</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" t="s">
+        <v>21</v>
+      </c>
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>6.252014</v>
+      </c>
+      <c r="H21">
+        <v>12.504028</v>
+      </c>
+      <c r="I21">
+        <v>0.7576118033845048</v>
+      </c>
+      <c r="J21">
+        <v>0.695172647219185</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>0.856297</v>
+      </c>
+      <c r="N21">
+        <v>2.568891</v>
+      </c>
+      <c r="O21">
+        <v>0.07267062894458745</v>
+      </c>
+      <c r="P21">
+        <v>0.09272334162103665</v>
+      </c>
+      <c r="Q21">
+        <v>5.353580832157999</v>
+      </c>
+      <c r="R21">
+        <v>32.121484992948</v>
+      </c>
+      <c r="S21">
+        <v>0.05505612624779509</v>
+      </c>
+      <c r="T21">
+        <v>0.06445873085370489</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" t="s">
+        <v>24</v>
+      </c>
+      <c r="C22" t="s">
+        <v>25</v>
+      </c>
+      <c r="D22" t="s">
+        <v>26</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>6.252014</v>
+      </c>
+      <c r="H22">
+        <v>12.504028</v>
+      </c>
+      <c r="I22">
+        <v>0.7576118033845048</v>
+      </c>
+      <c r="J22">
+        <v>0.695172647219185</v>
+      </c>
+      <c r="K22">
+        <v>2</v>
+      </c>
+      <c r="L22">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M22">
+        <v>0.2788403333333334</v>
+      </c>
+      <c r="N22">
+        <v>0.8365210000000001</v>
+      </c>
+      <c r="O22">
+        <v>0.02366410532613305</v>
+      </c>
+      <c r="P22">
+        <v>0.03019397181747735</v>
+      </c>
+      <c r="Q22">
+        <v>1.743313667764667</v>
+      </c>
+      <c r="R22">
+        <v>10.459882006588</v>
+      </c>
+      <c r="S22">
+        <v>0.01792820551161252</v>
+      </c>
+      <c r="T22">
+        <v>0.0209900233184172</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" t="s">
+        <v>24</v>
+      </c>
+      <c r="C23" t="s">
+        <v>25</v>
+      </c>
+      <c r="D23" t="s">
+        <v>27</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>6.252014</v>
+      </c>
+      <c r="H23">
+        <v>12.504028</v>
+      </c>
+      <c r="I23">
+        <v>0.7576118033845048</v>
+      </c>
+      <c r="J23">
+        <v>0.695172647219185</v>
+      </c>
+      <c r="K23">
+        <v>1</v>
+      </c>
+      <c r="L23">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M23">
+        <v>0.05413033333333334</v>
+      </c>
+      <c r="N23">
+        <v>0.162391</v>
+      </c>
+      <c r="O23">
+        <v>0.004593832943842499</v>
+      </c>
+      <c r="P23">
+        <v>0.005861453899438226</v>
+      </c>
+      <c r="Q23">
+        <v>0.3384236018246667</v>
+      </c>
+      <c r="R23">
+        <v>2.030541610948</v>
+      </c>
+      <c r="S23">
+        <v>0.003480342061031665</v>
+      </c>
+      <c r="T23">
+        <v>0.004074722423825687</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24" t="s">
+        <v>25</v>
+      </c>
+      <c r="D24" t="s">
         <v>22</v>
       </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>6.15154740738719</v>
-      </c>
-      <c r="H13">
-        <v>6.15154740738719</v>
-      </c>
-      <c r="I13">
-        <v>0.8132052746502813</v>
-      </c>
-      <c r="J13">
-        <v>0.8132052746502813</v>
-      </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>0.809930450773398</v>
-      </c>
-      <c r="N13">
-        <v>0.809930450773398</v>
-      </c>
-      <c r="O13">
-        <v>0.07266875540654688</v>
-      </c>
-      <c r="P13">
-        <v>0.07266875540654688</v>
-      </c>
-      <c r="Q13">
-        <v>4.982325564619035</v>
-      </c>
-      <c r="R13">
-        <v>4.982325564619035</v>
-      </c>
-      <c r="S13">
-        <v>0.05909461519887507</v>
-      </c>
-      <c r="T13">
-        <v>0.05909461519887507</v>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>6.252014</v>
+      </c>
+      <c r="H24">
+        <v>12.504028</v>
+      </c>
+      <c r="I24">
+        <v>0.7576118033845048</v>
+      </c>
+      <c r="J24">
+        <v>0.695172647219185</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>2.949111</v>
+      </c>
+      <c r="N24">
+        <v>8.847333000000001</v>
+      </c>
+      <c r="O24">
+        <v>0.2502796940750712</v>
+      </c>
+      <c r="P24">
+        <v>0.319341801654516</v>
+      </c>
+      <c r="Q24">
+        <v>18.437883259554</v>
+      </c>
+      <c r="R24">
+        <v>110.627299557324</v>
+      </c>
+      <c r="S24">
+        <v>0.1896148503787369</v>
+      </c>
+      <c r="T24">
+        <v>0.2219976856239138</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>24</v>
+      </c>
+      <c r="C25" t="s">
+        <v>25</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>6.252014</v>
+      </c>
+      <c r="H25">
+        <v>12.504028</v>
+      </c>
+      <c r="I25">
+        <v>0.7576118033845048</v>
+      </c>
+      <c r="J25">
+        <v>0.695172647219185</v>
+      </c>
+      <c r="K25">
+        <v>2</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>0.8102765000000001</v>
+      </c>
+      <c r="N25">
+        <v>1.620553</v>
+      </c>
+      <c r="O25">
+        <v>0.06876504632623846</v>
+      </c>
+      <c r="P25">
+        <v>0.05849336909740267</v>
+      </c>
+      <c r="Q25">
+        <v>5.065860021871001</v>
+      </c>
+      <c r="R25">
+        <v>20.263440087484</v>
+      </c>
+      <c r="S25">
+        <v>0.05209721075704054</v>
+      </c>
+      <c r="T25">
+        <v>0.04066299024021029</v>
       </c>
     </row>
   </sheetData>
